--- a/biology/Botanique/Solanum_lycocarpum/Solanum_lycocarpum.xlsx
+++ b/biology/Botanique/Solanum_lycocarpum/Solanum_lycocarpum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Solanum lycocarpum est une espèce de plantes à fleurs dicotylédones de la famille des Solanaceae.
 C'est un arbrisseau à feuilles persistantes commun dans les savanes brésiliennes. 
@@ -513,11 +525,13 @@
           <t>Distribution et habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'aire de répartition de Solanum lycocarpum s'étend principalement dans le Cerrado, région de savane située en Amérique du Sud, principalement au Brésil.
 Cette espèce se rencontre également dans d'autres régions brésiliennes, comme les États de Paraná, Rio de Janeiro, Pará et Amazonas. 
-C'est une plante commune dans les zones perturbées par l'homme, comme les bords de route, où elle se comporte comme une espèce pionnière[1].
+C'est une plante commune dans les zones perturbées par l'homme, comme les bords de route, où elle se comporte comme une espèce pionnière.
 			Feuilles de Solanum lycocarpum
 			Un fruit du Loup
 			Fleur et feuilles
@@ -549,9 +563,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (8 mars 2016)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (8 mars 2016) :
 Solanum grandiflorum f. apaense Chodat &amp; Hassl.,
 Solanum grandiflorum var. macrocarpum Hassl.,
 Solanum grandiflorum f. paraguariensis Chodat &amp; Hassl.,
